--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1490.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1490.xlsx
@@ -354,7 +354,7 @@
         <v>2.08860011437438</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.896607411872514</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1490.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1490.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.350547956149037</v>
+        <v>1.553524255752563</v>
       </c>
       <c r="B1">
-        <v>2.08860011437438</v>
+        <v>4.379415035247803</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.225966930389404</v>
       </c>
       <c r="D1">
-        <v>1.896607411872514</v>
+        <v>1.335103869438171</v>
       </c>
       <c r="E1">
-        <v>0.7675042713265257</v>
+        <v>0.9384265542030334</v>
       </c>
     </row>
   </sheetData>
